--- a/Labo3/03 - Magnetismo/Med solenoide.xlsx
+++ b/Labo3/03 - Magnetismo/Med solenoide.xlsx
@@ -301,6 +301,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -315,6 +316,7 @@
       <c r="D2" s="1">
         <v>11.4</v>
       </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
